--- a/data/PH temp.xlsx
+++ b/data/PH temp.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ph_climate\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp-JP\jp_local_git\__PERSONAL\ph_climate_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9224992-DE4B-4311-BCDB-5C3CCF800D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E2B62E-24CA-4A9F-968C-63867B7997B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00110006-848D-494C-A072-69C7A4FA1923}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00110006-848D-494C-A072-69C7A4FA1923}"/>
   </bookViews>
   <sheets>
-    <sheet name="el_nino_la_nina" sheetId="1" r:id="rId1"/>
-    <sheet name="notable_monsoons" sheetId="2" r:id="rId2"/>
-    <sheet name="extremes" sheetId="3" r:id="rId3"/>
-    <sheet name="typhoons_supplement" sheetId="4" r:id="rId4"/>
+    <sheet name="notable_extreme_events" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">el_nino_la_nina!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notable_extreme_events!$A$1:$N$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,29 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="132">
   <si>
     <t>Deaths</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>year_start</t>
-  </si>
-  <si>
-    <t>year_end</t>
-  </si>
-  <si>
     <t>Moderate to severe drought severely affected the Bicol region and caused millions of tons of losses in rice and corn production (Hilario, F., 2009).</t>
   </si>
   <si>
@@ -104,26 +86,370 @@
     <t>Habagat 2012</t>
   </si>
   <si>
-    <t>Enhanced by Typhoon Haiku</t>
-  </si>
-  <si>
     <t>date_start</t>
   </si>
   <si>
     <t>date_end</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>total_rainfall</t>
+    <t>Habagat 2013</t>
+  </si>
+  <si>
+    <t>Habagat 2018</t>
+  </si>
+  <si>
+    <t>mm_of_rain</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>mm_of_rain_measured</t>
+  </si>
+  <si>
+    <t>Science Garden, Quezon City</t>
+  </si>
+  <si>
+    <t>Sangley Point, Cavite</t>
+  </si>
+  <si>
+    <t>Subic Bay, Olongapo</t>
+  </si>
+  <si>
+    <t>Enhanced by Typhoon Haiku (no local name) in Southeast China, this Habagat event was an 8-day event but torrential rain poured over a span of four days</t>
+  </si>
+  <si>
+    <t>Enhanced by Tropical Storm Maring (Trami) and Typhoon Labuyo (Utor) which remained stagnant over northeast of Batanes.</t>
+  </si>
+  <si>
+    <t>Enhanced by four (4) tropical cyclone systems (Typhoons Henry, Inday, Tropical Storm Bebinca (outside PAR) and Tropical Depression Josie (13W). The most affect province was Pangasinan in terms of flooding. In August of 2018, another event happened due to Typhoon Karding (August 11-13) when Baguio City and neighboring areas received a significant amount of rain that caused landslides and flash floods.</t>
+  </si>
+  <si>
+    <t>Amihan</t>
+  </si>
+  <si>
+    <t>Amihan 2011</t>
+  </si>
+  <si>
+    <t>The Amihan episode in the month of December brought heavy rains over Ilocos Region, Cagayan Region, Cordillera Administrative Region, and Central Luzon. This monsoonal event triggered the occurrence of a series of flooding events, affecting more than 80,000 persons, and leaving three dead and seven missing.</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Affected</t>
+  </si>
+  <si>
+    <t>Amihan 2012</t>
+  </si>
+  <si>
+    <t>On Dec 18-23, continuous heavy rains brought about by NE monsoon displaced a total of 4,792 residents in the provinces of Laguna, Cavite, Quezon and Bohol. A series of flooding and landslide events, which occurred due to Amihan, claimed four lives and left nine injured.</t>
+  </si>
+  <si>
+    <t>injured</t>
+  </si>
+  <si>
+    <t>Continous rains over the Cagayan Valley and Cordillera Administrative Region brought about by Amihan in the month of November resulted in flooding, landslides, and river swelling. More than 70,000 people within 101 barangays were affected by this monsoonal event.</t>
+  </si>
+  <si>
+    <t>Amihan 2017</t>
+  </si>
+  <si>
+    <t>Amihan 1964</t>
+  </si>
+  <si>
+    <t>Amihan 1970-71</t>
+  </si>
+  <si>
+    <t>Amihan 1973-75</t>
+  </si>
+  <si>
+    <t>Amihan 2000-01</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>Typhoon Yoyong</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>typhoon_name_intl</t>
+  </si>
+  <si>
+    <t>typhoon_name_ph</t>
+  </si>
+  <si>
+    <t>In 1951, Typhoon Yoyong (Amy) affected the country on December 6-11. It is one of the deadliest tropical cyclones in the country resulting in 991 casualties. It caused significant damage in eastern Visayas, particularly in Leyte, Cebu, and Panay Islands</t>
+  </si>
+  <si>
+    <t>In 1952, Typhoon Trix struck the Bicol Region from October 17-23, killing 995 people</t>
+  </si>
+  <si>
+    <t>Typhoon Trix</t>
+  </si>
+  <si>
+    <t>Typhoon Pamela</t>
+  </si>
+  <si>
+    <t>Typhoon Freda</t>
+  </si>
+  <si>
+    <t>Typhoon Pamela in 1954 lasted for 10 and a half days. It is one of the tropical cyclones with the longest lifespan</t>
+  </si>
+  <si>
+    <t>1959's Typhoon Freda is one of the most intense TCs with 258 kph maximum sustained winds recorded in Casiguran, Aurora in November 16. Besides destructive winds, it dumped significant amount of rain in Metro Manila and caused damages to crops in souther Luzon and Visayas. Typhoon Freda resulted in 58 casualties.</t>
+  </si>
+  <si>
+    <t>Tropical Depression 5914 (no local/international name) lasted for more than 12 days, one of the tropical cyclones with the longest lifespan.</t>
+  </si>
+  <si>
+    <t>Tropical Depression 5914</t>
+  </si>
+  <si>
+    <t>Typhoon Kate</t>
+  </si>
+  <si>
+    <t>Third of the longest tropical cyclones ever to enter PAR, Typhoon Kate developed off the eastern coast of Luzon on 1962 July 18 and dissipated on July 25 after traversing through northeastern coast of Luzon. It then moved across Taiwan and mainland China for a total of 15 days.</t>
+  </si>
+  <si>
+    <t>Typhoon Klaring (Irma) in 1966 lasted for eleven and a half days, one of the tropical cyclones with the longest lifespan. It made landfall over eastern Samar, moved across the Sibuyan Sea to Mindoro, then shifted its track and moved northeast towards eastern Japan until it dissipated on May 29. It is believed to be the cause of the sinking of two ships --- Pioneer Cebu on May 27 and Banc Alex off the coast of Visayas.</t>
+  </si>
+  <si>
+    <t>On July 21-28 of 1968, Typhoon Didang (Nadine) caused an 9.1 meters high storm surge that hit Barrio Sulvec, Narvacan, Ilocos Sur.</t>
+  </si>
+  <si>
+    <t>Typhoon Sening, Yoling and Titang (Kate) are three of the deadliest tropical cyclones to strike the country with 575 deaths, 611 deaths, and 631 deaths, respectively.</t>
+  </si>
+  <si>
+    <t>Typhoon Klaring</t>
+  </si>
+  <si>
+    <t>Typhoon Yoling</t>
+  </si>
+  <si>
+    <t>Typhoon Sening</t>
+  </si>
+  <si>
+    <t>Typhoon Titang</t>
+  </si>
+  <si>
+    <t>Typhoon Mameng</t>
+  </si>
+  <si>
+    <t>Typhoon Wening</t>
+  </si>
+  <si>
+    <t>Typhoon Susang</t>
+  </si>
+  <si>
+    <t>Typhoon Didang</t>
+  </si>
+  <si>
+    <t>Typhoon Ditang</t>
+  </si>
+  <si>
+    <t>Typhoon Atang</t>
+  </si>
+  <si>
+    <t>Typhoon Norming</t>
+  </si>
+  <si>
+    <t>Typhoon Nitang</t>
+  </si>
+  <si>
+    <t>Typhoon Miding</t>
+  </si>
+  <si>
+    <t>Typhoon Trining</t>
+  </si>
+  <si>
+    <t>On October 11 of 1974, Typhoon Susang (Bess) dumped 781.4 mm of rain within 24 hours in 
+Baguio. This is the 4th greatest 24-hr. rainfall ever recorded due to the passing of a tropical 
+cyclone.</t>
+  </si>
+  <si>
+    <t>Later that month, Typhoon Wening (Elaine), was recorded as having maximum sustained winds of 269 kph in Aparri on October 27. It is one of the most intense TCs in PAR.</t>
+  </si>
+  <si>
+    <t>Another intense TC, Typhoon Mameng (Elsie), happened in 1975. It was recorded as having maximum sustained winds of 240 kph in Basco on October 12</t>
+  </si>
+  <si>
+    <t>Typhoon Didang ( with the longest life span. Typhoon Didang crossed Central Luzon and Olga) in 1976 lasted for 15 days. It is one of the TCs 1971-1980 claimed 200 lives and affected more than three million people</t>
+  </si>
+  <si>
+    <t>In 1978, Typhoon Atang (Olive) affected the country from April 18-26 and is one of the most intense TCs in PAR with recorded maximum sustained winds of 240 kph in on April 19)</t>
+  </si>
+  <si>
+    <t>In the same year, Typhoon Karding* caused around 444 deaths from October 25-27</t>
+  </si>
+  <si>
+    <t>In 1980, Typhoon Ditang (Dom) poured 730.8 mm of rain in Baguio on May 15. It is one of the TCs with the greatest 24-hour rainfall</t>
+  </si>
+  <si>
+    <t>1981's Typhoon Anding (Irma) is one of the most intense TCs with 280 kph maximum sustained winds recorded in Virac on November 27. It brought storm surges as high as 4.4 to 8.4 meters to Camarines Sur and Digsit, Baler.</t>
+  </si>
+  <si>
+    <t>While it had a total lifespan of 14.5 days, 1982’s Typhoon Norming (Ellis) did not cross any Philippine landmass and therefore did not cause any significant damage</t>
+  </si>
+  <si>
+    <t>1984 had two of the deadliest TCs recorded. Typhoon Nitang (Ike) resulted in 1,029 deaths, while Typhoon Undang (Agnes) had 859 casualties.</t>
+  </si>
+  <si>
+    <t>On September 2, Typhoon Nitang (Ike) affected Negros island with estimated 5 meter high storm surges.</t>
+  </si>
+  <si>
+    <t>The longest-lived TC in PAR is Typhoon Miding (Wayne) which formed and meandered along the South China Sea and affected most of northwestern Luzon for 18 days from August to September in 1986. Typhoon Miding resulted in 17 casualties.</t>
+  </si>
+  <si>
+    <t>In 1986, Typhoon Loleng (Vera), one of the TCs with longest life span, lasted for 12 days from August 13-25. It neither made landfall nor crossed any Philippine landmass</t>
+  </si>
+  <si>
+    <t>On 12 July 1987, Typhoon Katring (Thelma) brought storm surges as high as 5 meters in the southern islands of the country</t>
+  </si>
+  <si>
+    <t>In November of that year, Typhoon Sisang (Nina) resulted in 808 casualties. It is one of the deadliest TCs on record.</t>
+  </si>
+  <si>
+    <t>On 15 December 1987, Typhoon Trining (Phyllis) was recorded in Masbate as having maximum sustained winds of 269 kph.</t>
+  </si>
+  <si>
+    <t>In 1990, Typhoon Ruping (Mike) affected the country from November 10-14 and left 508 casualties due to landslides, flooding and extreme wind damage in Visayas and neighboring areas</t>
+  </si>
+  <si>
+    <t>In 1991, Tropical Storm Uring (Thelma) caused one of the worst flash floods in Philippine history in Ormoc City, Leyte, resulting in 5,101 deaths. The flash flooding caused by the storm buried the eastern and western plains of the province in water, sediments and debris.</t>
+  </si>
+  <si>
+    <t>In the same year, Typhoon Trining (Ruth) dumped 760 mm of rain in Baguio on October 27. This is the 6th greatest amount of rainfall recorded in 24-hours due to a passing TC.</t>
+  </si>
+  <si>
+    <t>The 2nd longest TC that ever lived also occured in 1991. Typhoon Oniang (Nat) formed east of Luzon on September 15 and lasted for about 17 days. It affected the northernmost parts of Luzon but did not cause significant damage.</t>
+  </si>
+  <si>
+    <t>In 1994, Typhoon Garding (Axel), one of the most intense TCs, recorded maximum sustained winds of 258 kph in Guiuan on December 21.</t>
+  </si>
+  <si>
+    <t>In 1995, Typhoon Rosing (Angela) was recorded in Virac as having maximum sustained winds of 251 kph on November 2. The typhoon left 936 dead</t>
+  </si>
+  <si>
+    <t>In 1998, Typhoon Iliang (Zeb) dumped 994.6 mm of rain within 24 hours in Baguio on October 16</t>
+  </si>
+  <si>
+    <t>A few days later, on October 21, Typhoon Loleng (Babs) was recorded in Virac as having maximum sustained winds of 287 kph. It is the third most intense TC recorded and the 8th costliest with 787 deaths</t>
+  </si>
+  <si>
+    <t>In 2001, Typhoon Feria (Utor) dumped 1,085 mm of rain over Baguio on July 4. This is the greatest amount of 24-hour rainfall ever recorded</t>
+  </si>
+  <si>
+    <t>In 2003, Tropical Storm Chedeng dumped 722.6 mm of rain over Dagupan, Pangasinan on May 27. This is 9th of the greatest amount of 24-hour rainfall ever recorded</t>
+  </si>
+  <si>
+    <t>In 2006, Typhoon Reming (Durian) affected Bicol region and neighboring areas. It has one of the highest recorded maximum sustained winds (320 kph recorded in Virac on November 30). It is also one of the TCs with the greatest rainfall in one day with 734 mm recorded in Surigao on November 18
+Albay was the hardest hit due to runoff from Typhoon Reming's rainfall which caused 
+lahar (mud flows) on the slopes of Mt. Mayon resulting in severe loss of life 
+(1,266 deaths) and property.</t>
+  </si>
+  <si>
+    <t>On 21 June 2008, Typhoon Frank (Fengshen), caused massive loss of lives and property after following an unusual track that traversed seven islands in the Western Visayas. Out of 16 provinces that were damaged, the heaviest hit was Panay Island, where heavy rains and strong winds of up to 195 km per hour caused landslides and flash floods. There were 644 recorded deaths in Iloilo with destruction of crops and infrastructure amounting to PhP 13 billion. It was also Typhoon Frank which caused the capsizing of the MV Princess of the Stars due to rough seas.</t>
+  </si>
+  <si>
+    <t>In 2009, Typhoon Pepeng (Parma) criss-crossed Northern Luzon making initial landfall over Cagayan, looping back to landfall in Ilocos Norte, then looping back again and entering Cagayan a second time. It affected most of Northern Luzon and caused significant amount of damage. It is one of the costliest TCs with PhP 27.3 billion pesos worth of damages</t>
+  </si>
+  <si>
+    <t>In the same year, Tropical Storm Ondoy (Ketsana) delivered a record 448.5 mm of rain that fell on Metro Manila on September 26. It was responsible for the 465 deaths in Metro Manila and damages amounting to PhP 10.9 billion</t>
+  </si>
+  <si>
+    <t>In 2010, Typhoon Juan (Megi) affected the country from October 16-21. It is one of the most intense TCs that crossed the country with a recorded maximum winds of 225 kph. It caused severe damage to life and property (estimated at PhP 12 billion) due to strong winds and heavy downpour over Northern Luzon. Several provinces experienced landslides and several dams were forced to release water.</t>
+  </si>
+  <si>
+    <t>In 2011, Typhoon Pedring (Nesat) made landfall over the boundary of Aurora and Isabela on September 27 and tracked west northwestward across Northern Luzon. It affected and caused significant amount of damage in Regions 1-6, Cordillera Administrative Region and National Capital Region (NCR). The typhoon damaged PhP 13.45 billion worth of agriculture and PhP 2.1 billion worth of infrastructure. It also resulted in 87 people killed and 91 injured</t>
+  </si>
+  <si>
+    <t>In December 16 of the same year, Tropical Storm Sendong (Washi) caused devastation in the northern part of Mindanao, killing 1,268 people. The high death toll was attributed to the heavy downpour brought by the storm causing rivers to overflow that eventually flooded numerous barangays. PhP 2 billion worth of property damages were brought about by the tropical storm.</t>
+  </si>
+  <si>
+    <t>On 2012 December 2, Typhoon Pablo (Bopha) intensified and entered PAR, made landfall two days later over Baganga, Davao Oriental, and traversed Compostella Valley, Bukidnon and Negros Oriental. Powerful winds and floodwaters from the typhoon flattened homes as it smashed the shores of the southern Davao Oriental province. Continuing westward, it blew over mountains with heavy rains triggering flash floods in nearby Compostela Valley province that washed down tons of mud and boulders on communities. The massive floods and landslides from the typhoon killed 1,248 people in Mindanao.</t>
+  </si>
+  <si>
+    <t>2013’s Typhoon Yolanda (Haiyan) is estimated to have maximum sustained winds of 313 kph* and gusts of up to 380 kph*. The deadliest TC on record in more recent times, Typhoon Yolanda claimed the lives of more than 6,300 people, most of them from drowning due to the devastating storm surge and coastal inundation. Besides being the deadliest, Typhoon Yolanda is also the costliest TC in terms of economic damage to agriculture and infrastructure due to the storm surge and powerful winds.</t>
+  </si>
+  <si>
+    <t>Typhoon Glenda (Rammasun) made landfall in Albay on 2014 July 15. It crossed NCR the following morning impacting the Metro Manila area and nearby provinces with strong winds and heavy rain, causing power outages. Typhoon Glenda resulted to approximately PhP 39 billion worth of damages. It ranks 3rd of the costliest TCs since 1951.</t>
+  </si>
+  <si>
+    <t>2015’s Typhoon Lando (Koppu) is one of the most intense and destructive TCs since 1951. It made landfall over Aurora and crossed and lingered over Luzon for a few days. Typhoon Lando’s highest maximum sustained winds was 252 kph recorded in Casiguran, Aurora on October 18. It resulted in more than PhP 14 billion worth of damages.</t>
+  </si>
+  <si>
+    <t>On 2016 September 13, Typhoon Ferdie (Meranti) was recorded in Basco, Batanes as having maximum sustained winds of 252 kph.</t>
+  </si>
+  <si>
+    <t>On October 19, Super Typhoon Lawin (Haima) was recorded with maximum sustained winds of 234 kph in Tuguegarao. One of the most intense TCs, it affected northern Luzon and killed 18 people due to flooding, landslides and storm surges.</t>
+  </si>
+  <si>
+    <t>On Christmas Day of the same year, Typhoon Nina (Nock-ten) was recorded with 280 kph maximum sustained winds recorded in Virac, Catanduanes. One of the most intense TCs, it wreaked havoc over most of Bicol region and traversed across Southern Luzon.</t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>This was one of the worst flooding events in Philippine history due to the combined effects of the Southwest monsoon and Typhoon Goring dumping 4,773.9 mm of rain in Baguio and 2,659.4 mm of rain in Dagupan City, Pangasinan in the month of July. Itbayat, Batanes also received 2,918.7 mm of rain in August. Low-lying areas in Pampanga and Bulacan were submerged when floodwaters rose to the rooftop level of houses. Most streets in Manila were also submerged. Laguna Lake overflowed and inundated the surrounding towns. It should be noted that the 1972 great flood over Luzon occurred during an El Niño episode.</t>
+  </si>
+  <si>
+    <t>Continuous rains and flooding affected and completely swamped almost 400,000 hectares of lands in the provinces of Agusan del Sur, Agusan del Norte, and Butuan City. While 600,000 people were able to escape to safety, 200 people were killed and approximately 14,000 persons were injured.</t>
+  </si>
+  <si>
+    <t>On September 6, flash floods hit the area near Mount Melibengoy or Parker Volcano on Mindanao Island. The province of Sultan Kudarat was heavily affected with estimated cost of damages of about PhP 72.7 million. The flood affected 8,915 persons or 2,172 families in Sultan Kudarat, and a total of 15,563 persons or 3,052 families in all affected areas. The flash flood also resulted in 48 casualties.</t>
+  </si>
+  <si>
+    <t>Metro Manila and its adjacent cities experienced heavy rains from August 18 to 21 due to extreme southwest monsoon (habagat) rainfall, enhanced by Tropical Storm Maring (Trami). Habagat 2013 was also reminiscent of the Habagat event in 2012.</t>
+  </si>
+  <si>
+    <t>1999 CHERRY HILLS, ANTIPOLO, RIZAL</t>
+  </si>
+  <si>
+    <t>THE GREAT PHILIPPINE FLOODS OF 1972</t>
+  </si>
+  <si>
+    <t>1981 JANUARY Floods</t>
+  </si>
+  <si>
+    <t>1995 SEPTEMBER FLOODING</t>
+  </si>
+  <si>
+    <t>2013 AUGUST FLOODINGS</t>
+  </si>
+  <si>
+    <t>On August 3, a devastating landslide occurred in Cherry Hills Subdivision, Antipolo City, Rizal Province, which killed 60 people and displaced hundreds of families. Heavy rains induced by Typhoon Ising (Olga) triggered the landslide. Typhoon Ising developed from an active low-pressure area on July 28 and intensified into a typhoon. It did not directly hit the Philippines but continuous monsoon rains were experienced over the western sections of Luzon displacing more than 73,000 people.</t>
+  </si>
+  <si>
+    <t>In November, Typhoon Winnie caused floods and triggered multiple landslides that were transformed into debris flows along the main tributary of the Agos River, burying the towns of General Nakar and Infanta. Typhoon Winnie dumped approximately 342 mm of rainfall over a 9-hour period in Infanta. This caused a combined PhP 207.5 millions of pesos worth of damages in agriculture, livestock, and fisheries, affected 16 barangays composed of 12,007 families, totally damaged 4,256 houses, partially damaged 3,674, and washed out 1,592. It resulted in 176 casualties, with 53 missing and eleven injured</t>
+  </si>
+  <si>
+    <t>One of the country's worst landslide almost wiped out the entire 480 hectares of Barangay Guinsaugon, one of the 16 villages of the town of St. Bernard in Southern Leyte. The disaster left in its wake 28 injured, 410 registered survivors and buried alive at least 1,000 people.
+The landslide was caused by a multitude of factors including the 683.6 millimeters of rainfall that 
+fell from February 8 to 14, a 2.6 magnitude earthquake 21 km west of Guinsaugon on February 17, 
+and slope deformation that happened a few months before the landslide.</t>
+  </si>
+  <si>
+    <t>Landslide</t>
+  </si>
+  <si>
+    <t>2006 ST. BERNARD GUINSAUGON, LEYTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,10 +484,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,322 +826,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F33B8-28A5-415A-8F29-F76F81F316F6}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="92" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="23.5703125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="17.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>24838</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25204</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>26299</v>
+      </c>
+      <c r="B3" s="3">
+        <v>26665</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>29952</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30317</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>32509</v>
+      </c>
+      <c r="B5" s="3">
+        <v>32874</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>33239</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33970</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>35431</v>
+      </c>
+      <c r="B7" s="3">
+        <v>35796</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42370</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>35796</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36526</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>40179</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40544</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>900000000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>26665</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27030</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>27395</v>
+      </c>
+      <c r="B12" s="3">
+        <v>27760</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>32143</v>
+      </c>
+      <c r="B13" s="3">
+        <v>32509</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>39083</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39448</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41127</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15">
+        <v>1007.4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>41503</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41507</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1120.2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43296</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43304</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1097.4000000000001</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>40878</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40908</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2">
+        <v>80000</v>
+      </c>
+      <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="M18" s="2">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>41261</v>
+      </c>
+      <c r="B19" s="3">
+        <v>41266</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4792</v>
+      </c>
+      <c r="K19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1968</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1969</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>1972</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1973</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1983</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="L19" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1990</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1993</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>1973</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1974</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1976</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1989</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+      <c r="N19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43070</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2">
+        <v>70000</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>23377</v>
+      </c>
+      <c r="B21" s="3">
+        <v>23742</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>25569</v>
+      </c>
+      <c r="B22" s="3">
+        <v>26298</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>26665</v>
+      </c>
+      <c r="B23" s="3">
+        <v>27759</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>36526</v>
+      </c>
+      <c r="B24" s="3">
+        <v>37256</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>18968</v>
+      </c>
+      <c r="B25" s="3">
+        <v>18973</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="2">
+        <v>991</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19284</v>
+      </c>
+      <c r="B26" s="3">
+        <v>19290</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="2">
+        <v>995</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>19725</v>
+      </c>
+      <c r="B27" s="3">
+        <v>19725</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>21551</v>
+      </c>
+      <c r="B28" s="3">
+        <v>21551</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="2">
+        <v>58</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>21551</v>
+      </c>
+      <c r="B29" s="3">
+        <v>21551</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>26481</v>
+      </c>
+      <c r="B85" s="3">
+        <v>26510</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>29587</v>
+      </c>
+      <c r="B86" s="3">
+        <v>29617</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>34948</v>
+      </c>
+      <c r="B87" s="3">
+        <v>29951</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>41523</v>
+      </c>
+      <c r="B88" s="3">
+        <v>41639</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20" xr:uid="{F15F33B8-28A5-415A-8F29-F76F81F316F6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
-      <sortCondition ref="C1:C20"/>
+  <autoFilter ref="A1:N15" xr:uid="{F15F33B8-28A5-415A-8F29-F76F81F316F6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
+      <sortCondition ref="C1:C15"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3DCA3-3748-4AC8-BFA5-813D30876CED}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.125" customWidth="1"/>
-    <col min="9" max="9" width="26.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>41127</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>1007.4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A293E1-9AC6-4922-BA67-DEE0F1B7F7A8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C416A8-4346-4DA8-AAA2-18E4FEECB0FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>